--- a/va_facility_data_2025-02-20/Fort Dodge VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Fort%20Dodge%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Fort Dodge VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Fort%20Dodge%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R228082b998d7452e9b786b32deba3816"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Re08b62857c8744a89d9c86d7fb75d4eb"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R5a7ca3eda7f446f093873f0f5aab69e7"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R703a974fdb4d4887a4530e0133f368cf"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R82cc84a408c04b49a3db6c003072c5b0"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rcca4641229cd48bb924509447cda4c9a"/>
   </x:sheets>
 </x:workbook>
 </file>
